--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-FindHuman.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-FindHuman.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B647BD-E9F6-4647-B989-DEE7C348F6C1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12828CB-CD04-467B-B81F-D827534B1288}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15147,8 +15147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14202F29-896F-4D10-A81D-E64A5E77759D}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-FindHuman.xlsx
+++ b/app/src/main/scala/testing/Tests/_TEST_RESULTS/Run_1/Experiment2/ChangeSensors-FindHuman.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12828CB-CD04-467B-B81F-D827534B1288}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0F58C0-720E-4889-9A47-6E66A185E462}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1393,6 +1393,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Goal Completion (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1406,7 +1431,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1453,6 +1478,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-37FB-4203-BDE3-8BE039AC47D9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$8</c:f>
@@ -1560,7 +1711,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1705,6 +1856,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Actions Performed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> (number of actions)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1718,7 +1899,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1765,6 +1946,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FD01-4790-8A41-FF91F46D0C70}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$8</c:f>
@@ -1872,7 +2179,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2017,6 +2324,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Remaining Health (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2030,7 +2362,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2077,6 +2409,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4408-42B6-B891-F1AD1DE8271E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$8</c:f>
@@ -2184,7 +2642,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2329,6 +2787,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Average Remaining Energy (%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2342,7 +2825,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2389,6 +2872,132 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000000-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-993D-4FA2-B46E-A94FA2783686}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Overall!$I$2:$I$8</c:f>
@@ -2496,7 +3105,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -14261,13 +14870,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>56197</xdr:colOff>
+      <xdr:colOff>952</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>46672</xdr:rowOff>
+      <xdr:rowOff>48577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>694372</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>77152</xdr:rowOff>
     </xdr:to>
@@ -14296,16 +14905,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1001077</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58102</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>77152</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>351472</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>86677</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14333,15 +14942,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>39052</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>58102</xdr:rowOff>
+      <xdr:colOff>952</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>103822</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>675322</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>86677</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14368,16 +14977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>991552</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>115252</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>952</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>134302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>341947</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>143827</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>162877</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15147,8 +15756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14202F29-896F-4D10-A81D-E64A5E77759D}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
